--- a/Logins-Vorlage.xlsx
+++ b/Logins-Vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MechtelDaten\HU-Box\MMe Synch\Temp\testdaten itc-toolbox2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MechtelDaten\vb.net\itc-ToolBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C205E-5EA4-4D8D-9AAF-FCD6BA11A15B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB07BEA-ED76-4A38-BB07-97D14E171F5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" tabRatio="369" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,24 +88,6 @@
     <t>Modus</t>
   </si>
   <si>
-    <t>Schule am Puerschweg Bremen</t>
-  </si>
-  <si>
-    <t>Grundschule am Kiefernberg Hamburg</t>
-  </si>
-  <si>
-    <t>Schule Ohrnsweg Hamburg</t>
-  </si>
-  <si>
-    <t>Schule an der Duesseldorfer Straße Bremen</t>
-  </si>
-  <si>
-    <t>Schule Kapellenweg Hamburg</t>
-  </si>
-  <si>
-    <t>Schule Klein Flottbeker Weg Hamburg</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -119,6 +101,24 @@
   </si>
   <si>
     <t>3B</t>
+  </si>
+  <si>
+    <t>Schule am Flamingoweg Bremen</t>
+  </si>
+  <si>
+    <t>Grundschule am Hadernsee Hamburg</t>
+  </si>
+  <si>
+    <t>Schule Kalinkatanz Hamburg</t>
+  </si>
+  <si>
+    <t>Schule an der Straße des 18. Juli Bremen</t>
+  </si>
+  <si>
+    <t>Schule Odessaweg Hamburg</t>
+  </si>
+  <si>
+    <t>Schule Groß Hullerbusch Hamburg</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -777,10 +777,10 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>15</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>14</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
